--- a/ibrahimarslann59/evidence.xlsx
+++ b/ibrahimarslann59/evidence.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -117,34 +117,58 @@
     <t xml:space="preserve">ClassID</t>
   </si>
   <si>
-    <t xml:space="preserve">tx hash on irisnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class id you issued</t>
+    <t xml:space="preserve">13E408B5F64EE5E3F15D3F7A70EE702CEB92282EAA70A016D894989AFE43AE8D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belloma</t>
   </si>
   <si>
     <t xml:space="preserve">NFTID</t>
   </si>
   <si>
-    <t xml:space="preserve">nft id you minted</t>
+    <t xml:space="preserve">428F114E0355F96F8360288B4E788D1BCF6BD3FDAF6BD334D5E6C62B2D18BCDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bellomanft1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">762D564A59618C07C18A511CCC0FE996A48097BA1ACCEA371F4991E743E861FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bellomanft2</t>
   </si>
   <si>
     <t xml:space="preserve">ChainID</t>
   </si>
   <si>
-    <t xml:space="preserve">ibc class on dest chain</t>
+    <t xml:space="preserve">15435648EC5DF4F95159688A71F9B9A19BACDBFAD60099F333865853AB31C402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juno1w2r28luz5ntl4pd8krrtg5j6eyyljc3u7kpw02kj03ya4lk8jjms9ygjuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCA2E37A3518F3891C4AA2D67B7E53B738AE9E9AC7CBFF6AAEE96C13BD223E70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/C49AC2E4229E7945F9E372B95532474F0625F0DAD0FEA246B1EBC3985C7E5DD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gon-flixnet-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3AAB3B3A4B3B0F59901F0891E003C0030DFCFA8710B538A500471D6570E8F1EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1BBCC07A7767A20C0D7AC1F26899A004AAD06DDEB6A539082A02677BB0B7784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">nft id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dest chain id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx hash on dest chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibc class on chain</t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -385,7 +409,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.86"/>
@@ -491,7 +515,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -507,10 +531,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +559,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -551,10 +575,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +603,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -595,10 +619,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +647,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -639,10 +663,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +691,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -678,25 +702,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +745,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -732,25 +756,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +799,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -786,25 +810,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +853,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -840,25 +864,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +907,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -894,25 +918,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +961,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -948,25 +972,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -988,53 +1012,53 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -1045,25 +1069,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1112,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -1099,25 +1123,25 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1166,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
@@ -1154,12 +1178,12 @@
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1208,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
@@ -1196,12 +1220,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1250,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
@@ -1238,12 +1262,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1292,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
@@ -1280,12 +1304,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1304,13 +1328,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
@@ -1329,13 +1353,24 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1357,10 +1392,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
@@ -1378,21 +1413,21 @@
         <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1414,10 +1449,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
@@ -1435,21 +1470,21 @@
         <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1506,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
@@ -1492,21 +1527,21 @@
         <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1528,10 +1563,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
@@ -1550,21 +1585,21 @@
         <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1624,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -1605,10 +1640,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1668,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -1649,10 +1684,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ibrahimarslann59/evidence.xlsx
+++ b/ibrahimarslann59/evidence.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -91,26 +91,14 @@
     <t xml:space="preserve">İbrahimarslann59#1555</t>
   </si>
   <si>
-    <t xml:space="preserve">Website: https://bellatora.co
+    <t xml:space="preserve">Bellatora
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medium:https://ibrahimarslann59.medium.com
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Twitter: https://twitter.com/ibrahimarsln59
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linkedin: https://www.linkedin.com/in/ibrahim-arslan-0b5487195/
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegram: @arslann59
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">TxHash</t>
   </si>
   <si>
@@ -147,7 +135,7 @@
     <t xml:space="preserve">juno1w2r28luz5ntl4pd8krrtg5j6eyyljc3u7kpw02kj03ya4lk8jjms9ygjuc</t>
   </si>
   <si>
-    <t xml:space="preserve">Uni-6</t>
+    <t xml:space="preserve">uni-6</t>
   </si>
   <si>
     <t xml:space="preserve">FCA2E37A3518F3891C4AA2D67B7E53B738AE9E9AC7CBFF6AAEE96C13BD223E70</t>
@@ -156,7 +144,7 @@
     <t xml:space="preserve">ibc/C49AC2E4229E7945F9E372B95532474F0625F0DAD0FEA246B1EBC3985C7E5DD3</t>
   </si>
   <si>
-    <t xml:space="preserve">Gon-flixnet-1</t>
+    <t xml:space="preserve">gon-flixnet-1</t>
   </si>
   <si>
     <t xml:space="preserve">3AAB3B3A4B3B0F59901F0891E003C0030DFCFA8710B538A500471D6570E8F1EA</t>
@@ -406,7 +394,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,17 +468,17 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -523,18 +511,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -567,18 +555,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -611,18 +599,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -655,18 +643,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -699,28 +687,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -753,28 +741,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -807,28 +795,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -861,28 +849,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -915,28 +903,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -969,28 +957,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1022,18 +1010,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1066,28 +1054,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1120,28 +1108,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1173,17 +1161,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1215,17 +1203,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1257,17 +1245,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1299,17 +1287,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1342,35 +1330,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1380,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1404,32 +1392,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1449,7 +1437,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,30 +1449,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1494,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1518,32 +1506,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1563,7 +1551,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,30 +1564,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1632,18 +1620,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1676,18 +1664,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ibrahimarslann59/evidence.xlsx
+++ b/ibrahimarslann59/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -153,10 +153,40 @@
     <t xml:space="preserve">D1BBCC07A7767A20C0D7AC1F26899A004AAD06DDEB6A539082A02677BB0B7784</t>
   </si>
   <si>
-    <t xml:space="preserve">ibc class on chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nft id</t>
+    <t xml:space="preserve">ibc/EC658DC7FC52BCE08E4CB32D530D28D626FC3910096AAE6B62B021776F722FB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/44A3B89EC8DFDCD5B4218F3E2C2FF46F0F55152DD002EB99CA5E7C6F0339CD7C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/AA6DE195988FD64E7E952B47DFC1DB5E59F84C745E2F69360DCDFEB241E8D189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/24C67F942AB63F678C345FC84AFE3275F41FEEAABDB97AD88F685DA0DEF65678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/3C25B8DCE61C2C492229CC96ED4FFE173769A8E0577DAA58637F6367B0D9CDF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibc/CBA420081186ADF7E2CD9F9CF388E79C2DEC685D3AF56136E0686E03BD7190B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id13</t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -393,7 +423,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -500,7 +530,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,10 +549,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +574,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,10 +593,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +618,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -607,10 +637,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -631,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,10 +681,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -695,20 +725,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -749,20 +779,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -803,20 +833,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -857,20 +887,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -911,20 +941,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -965,20 +995,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1062,20 +1092,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1116,20 +1146,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1166,12 +1196,12 @@
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1208,12 +1238,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1250,12 +1280,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1292,12 +1322,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1639,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,7 +1683,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1672,10 +1702,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ibrahimarslann59/evidence.xlsx
+++ b/ibrahimarslann59/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="81">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -189,6 +189,51 @@
     <t xml:space="preserve">id13</t>
   </si>
   <si>
+    <t xml:space="preserve">2CC56A10628604CE6C66183564CE46A38D357574B87AAB388B7363F35072A923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-irishub-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">649A84CF856B1D1B352069885B35A648A90F4B295B50C41C69F43E75139756A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elgafar-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9DF09D4EEEE92478EAD2888BBF8C020B1FD9AF36D29F526B22D577FA35CB30C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptick_7000-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">739B7C630EB03FDDA2ED0207A25F2D5F15EDA4E38434D4640D5ECE2B2A912D62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78C834B5E6D63D41C14674EC4AD469612E9FE1A0B30F8AD1BAFCE71B62F27902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6E3CA2CB7F174EDECE1D6C345BE24B2709925B1AC3A326CD25BF32797C439924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148343AAFBB5B1EBDCD0E1B26FC5D47A75AD4D3855D5817F80D42990AD778974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2E93508E31014DDCE0C58D818D0BA71B9600DF5F527A67CE5C7DE44BFAB6092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48BF2B485990281EB045600E90DFE413A4A979117444311EC96EC54DF984B026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E19A71D2FA28855155559D6D989FDA90A70F79595C14657D2B5E37D491538F9E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06DE0D7619541FFE43CFDA589B6F83216E49E552F10582DEC94AFDCBD52B2F84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD326B878FE5E3662B71CA3C03FE2AC09F804B4BF78EE321674BF22FDB7F4614</t>
+  </si>
+  <si>
     <t xml:space="preserve">tx hash on that chain</t>
   </si>
   <si>
@@ -196,6 +241,48 @@
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain	chain id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3D6BCDD56304FB5BCC9B72F000091D7A3ADFA5E82842D02D00239DB75423FB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0BFD69B97CD728A1271F447515254BCCA62B41A1C78764BD2D43B5ED5AC5B440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB2A291C8AA2166A448CEC6E7207D387CF885DC6575DE5AC783A5B725BB30651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E260678E8963EA67B4662CB2BC6426EDC9EA9C24643C5378B21CE335D1DFADA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A269C708CB08BCE2B6DFAF1045421931F1A84F9E0D295EBAF0C58ECBB126CE85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0D8437B533D1AAEC6886CD5B11CA0D21C8558A9B4C9038DA0C6C39A13D4469F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACD3EAF5D23D4272BDE64D2B6F3BC9CC4A4E32FEB9DAC53CCB692D634F15E8D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2EB3FBE32FCF417D63DFDDB6A8A2EB27B52D90D7DF14EBDB974381D9221D6A24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB13D6445EB3BC1CA1816880D4732DDB194810600923A29D09346B4D61EA4024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD9F90A7DB1337F2D488F90965AD7E86886EBD66B1D16A016C8F55E6594407D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5F8D4E8DDA02BB90FDF82C2A7345CB7B640092E16C826A4AE90264F2EB69831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7C0F576D0A089A5C26C5A1CFCAB4373C1184753807C502224EB2EB316C90E8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4CD61F92A355E2C26453E8DE138593DA5F7ABB31B92C11F9E2EC24A7D5F5933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47CB97FC94DC4D243BE2012D48A706B1451F0C9F89858A096E11D26A46E806B</t>
   </si>
   <si>
     <t xml:space="preserve">The first Interchain NFT-Transfer TxHash</t>
@@ -661,7 +748,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -703,16 +790,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="77.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -735,10 +822,24 @@
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -753,6 +854,142 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="85.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="75.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -779,7 +1016,147 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="74.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>48</v>
@@ -787,33 +1164,174 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="78.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -833,39 +1351,39 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -873,53 +1391,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -927,53 +1433,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -981,353 +1475,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.86"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
